--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91373.53756276435</v>
+        <v>16914629.26144048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91373.53756276435</v>
+        <v>16914629.26144048</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72061.96880154373</v>
+        <v>9139198.691286564</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72061.96880154373</v>
+        <v>9139198.691286564</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608890789.781121</v>
+        <v>56295570.40226489</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12764.3031356841</v>
+        <v>1295577.775622452</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24793.17661499977</v>
+        <v>2478394.118989506</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36822.05009431542</v>
+        <v>3661210.462356561</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50925.88002808175</v>
+        <v>4574709.429682991</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63120.96383165945</v>
+        <v>5733733.478678271</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75316.04763523715</v>
+        <v>6892757.527673553</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87662.60684402217</v>
+        <v>8099662.173303761</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99909.3842346254</v>
+        <v>9291350.091661233</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113920.1630789682</v>
+        <v>10192972.98935485</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125905.7488618734</v>
+        <v>11384944.66632808</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137891.3346447786</v>
+        <v>12576916.34330132</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>149876.9204276838</v>
+        <v>13768888.02027456</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>161862.506210589</v>
+        <v>14960859.6972478</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175725.8281152938</v>
+        <v>15903579.73113423</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>195563.7521495796</v>
+        <v>16095235.78129481</v>
       </c>
     </row>
   </sheetData>
